--- a/RESULTS/results.xlsx
+++ b/RESULTS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Fornitore</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>21.01.00</t>
-  </si>
-  <si>
-    <t>Engineering_Ingegneria_Informatica_S.p.A</t>
   </si>
   <si>
     <t>BAZ</t>
@@ -405,7 +402,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
@@ -484,10 +481,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>

--- a/RESULTS/results.xlsx
+++ b/RESULTS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Fornitore</t>
   </si>
@@ -65,6 +65,18 @@
   </si>
   <si>
     <t>BAZ</t>
+  </si>
+  <si>
+    <t>PIPPO</t>
+  </si>
+  <si>
+    <t>BAO</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>VALIDATION,PUBBLICATION</t>
   </si>
 </sst>
 </file>
@@ -396,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,7 +418,7 @@
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -502,6 +514,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS/results.xlsx
+++ b/RESULTS/results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Fornitore</t>
   </si>
@@ -77,6 +77,21 @@
   </si>
   <si>
     <t>VALIDATION,PUBBLICATION</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>APPBELLISSIMA</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>PSS</t>
+  </si>
+  <si>
+    <t>2022-02-24</t>
   </si>
 </sst>
 </file>
@@ -408,14 +423,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
@@ -537,6 +552,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/RESULTS/results.xlsx
+++ b/RESULTS/results.xlsx
@@ -91,7 +91,7 @@
     <t>PSS</t>
   </si>
   <si>
-    <t>2022-02-24</t>
+    <t>2022-02-25</t>
   </si>
 </sst>
 </file>
